--- a/Final Schematic and BOM/EGR107_03_RR01_BOM.xlsx
+++ b/Final Schematic and BOM/EGR107_03_RR01_BOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e128530431baf43/Documents/FALL 2020 CLASSES/EGR 107/Final Design Package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\EGR107_03\GitHub\EGR-107_SolidWorks_FinalDesignPackage\Final Schematic and BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{666E8948-FA97-4C51-AA3D-0F83D73AC93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3060" windowWidth="11904" windowHeight="9300" xr2:uid="{F64A6E1E-95C6-4878-A674-8D37E5CF5CA9}"/>
+    <workbookView xWindow="348" yWindow="3060" windowWidth="11904" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="158">
   <si>
     <t>Part Name</t>
   </si>
@@ -95,12 +94,6 @@
     <t>White birch</t>
   </si>
   <si>
-    <t>Popsicle Stick Supports for Top Chassis</t>
-  </si>
-  <si>
-    <t>Supports for top level of chassis</t>
-  </si>
-  <si>
     <t>LEGO Technic Differential Outer Piece</t>
   </si>
   <si>
@@ -453,16 +446,76 @@
   </si>
   <si>
     <t>Brass</t>
+  </si>
+  <si>
+    <t>RR031-11,12,13,14,18</t>
+  </si>
+  <si>
+    <t>RR031-16</t>
+  </si>
+  <si>
+    <t>RR031-17</t>
+  </si>
+  <si>
+    <t>Popsicle Stick Front Assembly Long Pieces</t>
+  </si>
+  <si>
+    <t>RR031-25</t>
+  </si>
+  <si>
+    <t>Mounts directly to Servo circular piece from kit</t>
+  </si>
+  <si>
+    <t>LEGO 1x2 Block with Hole</t>
+  </si>
+  <si>
+    <t>1x2 LEGO brick with hole in middle for holding front axle wheels</t>
+  </si>
+  <si>
+    <t>RR031-19</t>
+  </si>
+  <si>
+    <t>RR031-22,23</t>
+  </si>
+  <si>
+    <t>RR031-21</t>
+  </si>
+  <si>
+    <t>RR031-24</t>
+  </si>
+  <si>
+    <t>Pushbutton</t>
+  </si>
+  <si>
+    <t>Pushbutton to start calibration and driving on robot</t>
+  </si>
+  <si>
+    <t>JABINCO</t>
+  </si>
+  <si>
+    <t>Rocker Switch, SPST</t>
+  </si>
+  <si>
+    <t>On/off switch for robot</t>
+  </si>
+  <si>
+    <t>Position Servo Circular attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchased </t>
+  </si>
+  <si>
+    <t>Circular attachment to position servo that mounts on the front assembly to steer the robot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,41 +537,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF606060"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -559,23 +577,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -891,29 +925,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B5A642-8ACB-4922-9C03-F9AF7019F416}">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,1153 +966,1310 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(I2:I38)</f>
-        <v>18.170000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+        <v>23.160000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
-        <v>8</v>
+      <c r="G4" s="7">
+        <v>9</v>
       </c>
       <c r="H4" s="2">
         <f>1.49/75</f>
         <v>1.9866666666666668E-2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5">
-        <v>6</v>
+      <c r="G5" s="7">
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <f>1.49/75</f>
         <v>1.9866666666666668E-2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3700</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
+      <c r="G7" s="7">
         <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <f>9.18/6</f>
-        <v>1.53</v>
-      </c>
-      <c r="I6" s="2">
-        <f>H6</f>
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6589</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
       </c>
       <c r="H7" s="2">
         <f>9.18/6</f>
         <v>1.53</v>
       </c>
-      <c r="I7" s="3">
-        <f>H7*3</f>
+      <c r="I7" s="9">
+        <f>H7</f>
+        <v>1.53</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6589</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <f>9.18/6</f>
+        <v>1.53</v>
+      </c>
+      <c r="I8" s="8">
+        <f>H8*3</f>
         <v>4.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>56145</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7">
-        <v>56145</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>9.98/4</f>
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="I8" s="3">
-        <f>H8*G8</f>
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7">
-        <v>56145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
       </c>
       <c r="H9" s="2">
         <f>9.98/4</f>
         <v>2.4950000000000001</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="I9" s="8">
+        <f>H9*G9</f>
+        <v>9.98</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44309</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44309</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>2</v>
       </c>
       <c r="H10" s="2">
         <f>9.98/4</f>
         <v>2.4950000000000001</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3649</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3649</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7">
         <v>1</v>
       </c>
       <c r="H11" s="2">
         <f>16.75/50</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="8">
         <f>H11</f>
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
         <v>3708</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7">
         <v>1</v>
       </c>
       <c r="H12" s="2">
         <f>16.75/50</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <f>H12</f>
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
         <v>3706</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7">
         <v>2</v>
       </c>
       <c r="H13" s="2">
         <f>16.75/50</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="I13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
         <v>3713</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7">
         <v>4</v>
       </c>
       <c r="H14" s="2">
         <f>16.75/50</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="I14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7">
         <v>2</v>
       </c>
       <c r="H15" s="2">
         <f>1.49/200</f>
         <v>7.45E-3</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="2">
         <f>3.09</f>
         <v>3.09</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>8</v>
       </c>
       <c r="H17" s="2">
         <f>1.49/75</f>
         <v>1.9866666666666668E-2</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
       </c>
       <c r="H18" s="2">
         <f>5.97/100</f>
         <v>5.9699999999999996E-2</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>3</v>
       </c>
       <c r="H20" s="2">
         <f>1.49/75</f>
         <v>1.9866666666666668E-2</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>4</v>
       </c>
       <c r="H21" s="2">
         <f>1.49/75</f>
         <v>1.9866666666666668E-2</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7">
         <v>4</v>
       </c>
       <c r="H22" s="2">
         <f>3.49/80</f>
         <v>4.3625000000000004E-2</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>20.07</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="D24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="2">
         <v>3.95</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="I24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>6.95</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="I25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="E26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="7">
         <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>9</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+      <c r="I26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="E27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="2">
         <f>6.42/100</f>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="I27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <v>1</v>
       </c>
       <c r="H28" s="2">
         <f>5.94/100</f>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
+      <c r="I28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C29" s="4">
         <v>5582728083</v>
       </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29">
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="2">
         <f>5.75/10</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+      <c r="I29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="2">
         <v>1.95</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31">
+      <c r="I30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4">
         <v>4115</v>
       </c>
-      <c r="D31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31">
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="7">
         <v>1</v>
       </c>
       <c r="H31" s="2">
         <v>10.82</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+      <c r="I31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <v>1</v>
       </c>
       <c r="H32" s="2">
         <v>7.86</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+      <c r="I32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="7">
         <v>1</v>
       </c>
       <c r="H33" s="2">
         <f>2.95/30</f>
         <v>9.8333333333333342E-2</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
-      <c r="A34" t="s">
+      <c r="I33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
-      <c r="A35" t="s">
+      <c r="D35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="E35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="2">
         <f>5.58/6</f>
         <v>0.93</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+      <c r="I35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+      <c r="E38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="7">
         <v>6</v>
       </c>
       <c r="H38" s="2">
         <f>12.78/12</f>
         <v>1.0649999999999999</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="8">
         <f>H38*6</f>
         <v>6.39</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
+      <c r="G39" s="7">
+        <v>9</v>
       </c>
       <c r="H39" s="2">
         <v>0.13</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C40" s="4">
         <v>5360284</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>3</v>
       </c>
       <c r="H40" s="2">
         <f>2.59/3</f>
         <v>0.86333333333333329</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <f>5.99/16</f>
+        <v>0.37437500000000001</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
